--- a/Data/Generated/For Tableau/Part 1/Key Areas.xlsx
+++ b/Data/Generated/For Tableau/Part 1/Key Areas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phadk\Desktop\Python\Shrikant\Assignment_1_Hiring_Trends\Data\Generated Data\For Tableau\Part 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phadk\Desktop\Python\Shrikant\A1_HiringTrends\Data\Generated\For Tableau\Part 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4434CD-05E9-4338-9DE5-9F0917EBC34C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B87FE72-5C90-4CAE-BF5A-D2F2A3874DB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{D305DAAD-2855-4457-9684-AC9EF13468C9}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Bucket ID</t>
   </si>
@@ -38,18 +38,12 @@
     <t>Key Area</t>
   </si>
   <si>
-    <t>Technology</t>
-  </si>
-  <si>
     <t>Finance</t>
   </si>
   <si>
     <t>Risk</t>
   </si>
   <si>
-    <t>Analysis</t>
-  </si>
-  <si>
     <t>Strategy</t>
   </si>
   <si>
@@ -81,6 +75,9 @@
   </si>
   <si>
     <t>Payment</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
   </si>
 </sst>
 </file>
@@ -446,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44E55B3-F5D1-46F8-BB2C-CBF11CA142FA}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -470,7 +467,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -478,7 +475,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -486,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -494,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -502,7 +499,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -510,7 +507,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -518,7 +515,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -526,7 +523,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -534,7 +531,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -542,7 +539,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -550,7 +547,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -558,7 +555,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -566,7 +563,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -574,15 +571,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
